--- a/natmiOut/OldD4/LR-pairs_lrc2p/C3-C3ar1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/C3-C3ar1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.30954840389418</v>
+        <v>0.5236730000000001</v>
       </c>
       <c r="H2">
-        <v>0.30954840389418</v>
+        <v>1.571019</v>
       </c>
       <c r="I2">
-        <v>0.0009304846427813607</v>
+        <v>0.001411687926676084</v>
       </c>
       <c r="J2">
-        <v>0.0009304846427813607</v>
+        <v>0.001412631582657676</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.381411005421192</v>
+        <v>0.8795853333333333</v>
       </c>
       <c r="N2">
-        <v>0.381411005421192</v>
+        <v>2.638756</v>
       </c>
       <c r="O2">
-        <v>0.001179727607359676</v>
+        <v>0.00267438553742657</v>
       </c>
       <c r="P2">
-        <v>0.001179727607359676</v>
+        <v>0.002678020760105722</v>
       </c>
       <c r="Q2">
-        <v>0.1180651679558044</v>
+        <v>0.4606150902626667</v>
       </c>
       <c r="R2">
-        <v>0.1180651679558044</v>
+        <v>4.145535812364</v>
       </c>
       <c r="S2">
-        <v>1.097718421313378E-06</v>
+        <v>3.775397774462218E-06</v>
       </c>
       <c r="T2">
-        <v>1.097718421313378E-06</v>
+        <v>3.783056704738259E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.30954840389418</v>
+        <v>0.5236730000000001</v>
       </c>
       <c r="H3">
-        <v>0.30954840389418</v>
+        <v>1.571019</v>
       </c>
       <c r="I3">
-        <v>0.0009304846427813607</v>
+        <v>0.001411687926676084</v>
       </c>
       <c r="J3">
-        <v>0.0009304846427813607</v>
+        <v>0.001412631582657676</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>161.599786933506</v>
+        <v>0.6985800000000001</v>
       </c>
       <c r="N3">
-        <v>161.599786933506</v>
+        <v>2.09574</v>
       </c>
       <c r="O3">
-        <v>0.4998380415855352</v>
+        <v>0.002124037518514922</v>
       </c>
       <c r="P3">
-        <v>0.4998380415855352</v>
+        <v>0.002126924667450862</v>
       </c>
       <c r="Q3">
-        <v>50.02295611490635</v>
+        <v>0.3658274843400001</v>
       </c>
       <c r="R3">
-        <v>50.02295611490635</v>
+        <v>3.292447359060001</v>
       </c>
       <c r="S3">
-        <v>0.0004650916215732516</v>
+        <v>2.998478120694544E-06</v>
       </c>
       <c r="T3">
-        <v>0.0004650916215732516</v>
+        <v>3.004560959174763E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.30954840389418</v>
+        <v>0.5236730000000001</v>
       </c>
       <c r="H4">
-        <v>0.30954840389418</v>
+        <v>1.571019</v>
       </c>
       <c r="I4">
-        <v>0.0009304846427813607</v>
+        <v>0.001411687926676084</v>
       </c>
       <c r="J4">
-        <v>0.0009304846427813607</v>
+        <v>0.001412631582657676</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>161.323099630933</v>
+        <v>162.999588</v>
       </c>
       <c r="N4">
-        <v>161.323099630933</v>
+        <v>488.998764</v>
       </c>
       <c r="O4">
-        <v>0.4989822308071052</v>
+        <v>0.4956014206167863</v>
       </c>
       <c r="P4">
-        <v>0.4989822308071052</v>
+        <v>0.4962750787333269</v>
       </c>
       <c r="Q4">
-        <v>49.93730800201708</v>
+        <v>85.35848324672401</v>
       </c>
       <c r="R4">
-        <v>49.93730800201708</v>
+        <v>768.2263492205161</v>
       </c>
       <c r="S4">
-        <v>0.0004642953027867958</v>
+        <v>0.0006996345419282326</v>
       </c>
       <c r="T4">
-        <v>0.0004642953027867958</v>
+        <v>0.0007010538499046224</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>275.959470594142</v>
+        <v>0.5236730000000001</v>
       </c>
       <c r="H5">
-        <v>275.959470594142</v>
+        <v>1.571019</v>
       </c>
       <c r="I5">
-        <v>0.8295182471872904</v>
+        <v>0.001411687926676084</v>
       </c>
       <c r="J5">
-        <v>0.8295182471872904</v>
+        <v>0.001412631582657676</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.381411005421192</v>
+        <v>162.9753976666667</v>
       </c>
       <c r="N5">
-        <v>0.381411005421192</v>
+        <v>488.926193</v>
       </c>
       <c r="O5">
-        <v>0.001179727607359676</v>
+        <v>0.4955278697341596</v>
       </c>
       <c r="P5">
-        <v>0.001179727607359676</v>
+        <v>0.4962014278748991</v>
       </c>
       <c r="Q5">
-        <v>105.2539791348116</v>
+        <v>85.34581542229635</v>
       </c>
       <c r="R5">
-        <v>105.2539791348116</v>
+        <v>768.1123388006671</v>
       </c>
       <c r="S5">
-        <v>0.0009786055770154547</v>
+        <v>0.0006995307110352322</v>
       </c>
       <c r="T5">
-        <v>0.0009786055770154547</v>
+        <v>0.0007009498083759174</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>275.959470594142</v>
+        <v>0.5236730000000001</v>
       </c>
       <c r="H6">
-        <v>275.959470594142</v>
+        <v>1.571019</v>
       </c>
       <c r="I6">
-        <v>0.8295182471872904</v>
+        <v>0.001411687926676084</v>
       </c>
       <c r="J6">
-        <v>0.8295182471872904</v>
+        <v>0.001412631582657676</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>161.599786933506</v>
+        <v>1.3393445</v>
       </c>
       <c r="N6">
-        <v>161.599786933506</v>
+        <v>2.678689</v>
       </c>
       <c r="O6">
-        <v>0.4998380415855352</v>
+        <v>0.004072286593112612</v>
       </c>
       <c r="P6">
-        <v>0.4998380415855352</v>
+        <v>0.002718547964217547</v>
       </c>
       <c r="Q6">
-        <v>44594.99165029646</v>
+        <v>0.7013785523485</v>
       </c>
       <c r="R6">
-        <v>44594.99165029646</v>
+        <v>4.208271314091</v>
       </c>
       <c r="S6">
-        <v>0.4146247761335611</v>
+        <v>5.748797817461955E-06</v>
       </c>
       <c r="T6">
-        <v>0.4146247761335611</v>
+        <v>3.840306713223437E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>275.959470594142</v>
+        <v>290.8976950000001</v>
       </c>
       <c r="H7">
-        <v>275.959470594142</v>
+        <v>872.6930850000001</v>
       </c>
       <c r="I7">
-        <v>0.8295182471872904</v>
+        <v>0.7841854820267643</v>
       </c>
       <c r="J7">
-        <v>0.8295182471872904</v>
+        <v>0.78470967813754</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>161.323099630933</v>
+        <v>0.8795853333333333</v>
       </c>
       <c r="N7">
-        <v>161.323099630933</v>
+        <v>2.638756</v>
       </c>
       <c r="O7">
-        <v>0.4989822308071052</v>
+        <v>0.00267438553742657</v>
       </c>
       <c r="P7">
-        <v>0.4989822308071052</v>
+        <v>0.002678020760105722</v>
       </c>
       <c r="Q7">
-        <v>44518.63716875829</v>
+        <v>255.8693460224734</v>
       </c>
       <c r="R7">
-        <v>44518.63716875829</v>
+        <v>2302.82411420226</v>
       </c>
       <c r="S7">
-        <v>0.4139148654767139</v>
+        <v>0.002097214311792262</v>
       </c>
       <c r="T7">
-        <v>0.4139148654767139</v>
+        <v>0.002101468808708212</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -906,57 +906,57 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.8501770556849</v>
+        <v>290.8976950000001</v>
       </c>
       <c r="H8">
-        <v>18.8501770556849</v>
+        <v>872.6930850000001</v>
       </c>
       <c r="I8">
-        <v>0.05666254467272393</v>
+        <v>0.7841854820267643</v>
       </c>
       <c r="J8">
-        <v>0.05666254467272393</v>
+        <v>0.78470967813754</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.381411005421192</v>
+        <v>0.6985800000000001</v>
       </c>
       <c r="N8">
-        <v>0.381411005421192</v>
+        <v>2.09574</v>
       </c>
       <c r="O8">
-        <v>0.001179727607359676</v>
+        <v>0.002124037518514922</v>
       </c>
       <c r="P8">
-        <v>0.001179727607359676</v>
+        <v>0.002126924667450862</v>
       </c>
       <c r="Q8">
-        <v>7.189664983176262</v>
+        <v>203.2153117731001</v>
       </c>
       <c r="R8">
-        <v>7.189664983176262</v>
+        <v>1828.9378059579</v>
       </c>
       <c r="S8">
-        <v>6.684636825366338E-05</v>
+        <v>0.001665639385299556</v>
       </c>
       <c r="T8">
-        <v>6.684636825366338E-05</v>
+        <v>0.00166901837121816</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -968,57 +968,57 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.8501770556849</v>
+        <v>290.8976950000001</v>
       </c>
       <c r="H9">
-        <v>18.8501770556849</v>
+        <v>872.6930850000001</v>
       </c>
       <c r="I9">
-        <v>0.05666254467272393</v>
+        <v>0.7841854820267643</v>
       </c>
       <c r="J9">
-        <v>0.05666254467272393</v>
+        <v>0.78470967813754</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>161.599786933506</v>
+        <v>162.999588</v>
       </c>
       <c r="N9">
-        <v>161.599786933506</v>
+        <v>488.998764</v>
       </c>
       <c r="O9">
-        <v>0.4998380415855352</v>
+        <v>0.4956014206167863</v>
       </c>
       <c r="P9">
-        <v>0.4998380415855352</v>
+        <v>0.4962750787333269</v>
       </c>
       <c r="Q9">
-        <v>3046.184595857543</v>
+        <v>47416.20443514967</v>
       </c>
       <c r="R9">
-        <v>3046.184595857543</v>
+        <v>426745.839916347</v>
       </c>
       <c r="S9">
-        <v>0.02832209536046723</v>
+        <v>0.3886434389195237</v>
       </c>
       <c r="T9">
-        <v>0.02832209536046723</v>
+        <v>0.3894318573005113</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1030,57 +1030,57 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>18.8501770556849</v>
+        <v>290.8976950000001</v>
       </c>
       <c r="H10">
-        <v>18.8501770556849</v>
+        <v>872.6930850000001</v>
       </c>
       <c r="I10">
-        <v>0.05666254467272393</v>
+        <v>0.7841854820267643</v>
       </c>
       <c r="J10">
-        <v>0.05666254467272393</v>
+        <v>0.78470967813754</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>161.323099630933</v>
+        <v>162.9753976666667</v>
       </c>
       <c r="N10">
-        <v>161.323099630933</v>
+        <v>488.926193</v>
       </c>
       <c r="O10">
-        <v>0.4989822308071052</v>
+        <v>0.4955278697341596</v>
       </c>
       <c r="P10">
-        <v>0.4989822308071052</v>
+        <v>0.4962014278748991</v>
       </c>
       <c r="Q10">
-        <v>3040.968991214982</v>
+        <v>47409.16752294172</v>
       </c>
       <c r="R10">
-        <v>3040.968991214982</v>
+        <v>426682.5077064754</v>
       </c>
       <c r="S10">
-        <v>0.02827360294400304</v>
+        <v>0.3885857613851776</v>
       </c>
       <c r="T10">
-        <v>0.02827360294400304</v>
+        <v>0.3893740627590998</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>37.0042508650679</v>
+        <v>290.8976950000001</v>
       </c>
       <c r="H11">
-        <v>37.0042508650679</v>
+        <v>872.6930850000001</v>
       </c>
       <c r="I11">
-        <v>0.1112326431485824</v>
+        <v>0.7841854820267643</v>
       </c>
       <c r="J11">
-        <v>0.1112326431485824</v>
+        <v>0.78470967813754</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.381411005421192</v>
+        <v>1.3393445</v>
       </c>
       <c r="N11">
-        <v>0.381411005421192</v>
+        <v>2.678689</v>
       </c>
       <c r="O11">
-        <v>0.001179727607359676</v>
+        <v>0.004072286593112612</v>
       </c>
       <c r="P11">
-        <v>0.001179727607359676</v>
+        <v>0.002718547964217547</v>
       </c>
       <c r="Q11">
-        <v>14.11382852730356</v>
+        <v>389.6122278609275</v>
       </c>
       <c r="R11">
-        <v>14.11382852730356</v>
+        <v>2337.673367165565</v>
       </c>
       <c r="S11">
-        <v>0.0001312242199619698</v>
+        <v>0.003193428024971143</v>
       </c>
       <c r="T11">
-        <v>0.0001312242199619698</v>
+        <v>0.002133270898002616</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>37.0042508650679</v>
+        <v>38.68424166666667</v>
       </c>
       <c r="H12">
-        <v>37.0042508650679</v>
+        <v>116.052725</v>
       </c>
       <c r="I12">
-        <v>0.1112326431485824</v>
+        <v>0.1042827812651277</v>
       </c>
       <c r="J12">
-        <v>0.1112326431485824</v>
+        <v>0.1043524900644015</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>161.599786933506</v>
+        <v>0.8795853333333333</v>
       </c>
       <c r="N12">
-        <v>161.599786933506</v>
+        <v>2.638756</v>
       </c>
       <c r="O12">
-        <v>0.4998380415855352</v>
+        <v>0.00267438553742657</v>
       </c>
       <c r="P12">
-        <v>0.4998380415855352</v>
+        <v>0.002678020760105722</v>
       </c>
       <c r="Q12">
-        <v>5979.879055428978</v>
+        <v>34.02609160112222</v>
       </c>
       <c r="R12">
-        <v>5979.879055428978</v>
+        <v>306.2348244101</v>
       </c>
       <c r="S12">
-        <v>0.05559830651177011</v>
+        <v>0.000278892362018076</v>
       </c>
       <c r="T12">
-        <v>0.05559830651177011</v>
+        <v>0.0002794581347611934</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>37.0042508650679</v>
+        <v>38.68424166666667</v>
       </c>
       <c r="H13">
-        <v>37.0042508650679</v>
+        <v>116.052725</v>
       </c>
       <c r="I13">
-        <v>0.1112326431485824</v>
+        <v>0.1042827812651277</v>
       </c>
       <c r="J13">
-        <v>0.1112326431485824</v>
+        <v>0.1043524900644015</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>161.323099630933</v>
+        <v>0.6985800000000001</v>
       </c>
       <c r="N13">
-        <v>161.323099630933</v>
+        <v>2.09574</v>
       </c>
       <c r="O13">
-        <v>0.4989822308071052</v>
+        <v>0.002124037518514922</v>
       </c>
       <c r="P13">
-        <v>0.4989822308071052</v>
+        <v>0.002126924667450862</v>
       </c>
       <c r="Q13">
-        <v>5969.640449073388</v>
+        <v>27.0240375435</v>
       </c>
       <c r="R13">
-        <v>5969.640449073388</v>
+        <v>243.2163378915</v>
       </c>
       <c r="S13">
-        <v>0.0555031124168503</v>
+        <v>0.0002215005399422163</v>
       </c>
       <c r="T13">
-        <v>0.0555031124168503</v>
+        <v>0.0002219498852278966</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.550935507225664</v>
+        <v>38.68424166666667</v>
       </c>
       <c r="H14">
-        <v>0.550935507225664</v>
+        <v>116.052725</v>
       </c>
       <c r="I14">
-        <v>0.001656080348621943</v>
+        <v>0.1042827812651277</v>
       </c>
       <c r="J14">
-        <v>0.001656080348621943</v>
+        <v>0.1043524900644015</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.381411005421192</v>
+        <v>162.999588</v>
       </c>
       <c r="N14">
-        <v>0.381411005421192</v>
+        <v>488.998764</v>
       </c>
       <c r="O14">
-        <v>0.001179727607359676</v>
+        <v>0.4956014206167863</v>
       </c>
       <c r="P14">
-        <v>0.001179727607359676</v>
+        <v>0.4962750787333269</v>
       </c>
       <c r="Q14">
-        <v>0.2101328657331749</v>
+        <v>6305.5154537591</v>
       </c>
       <c r="R14">
-        <v>0.2101328657331749</v>
+        <v>56749.6390838319</v>
       </c>
       <c r="S14">
-        <v>1.953723707275144E-06</v>
+        <v>0.05168269454086688</v>
       </c>
       <c r="T14">
-        <v>1.953723707275144E-06</v>
+        <v>0.05178754022272958</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,117 +1337,737 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.550935507225664</v>
+        <v>38.68424166666667</v>
       </c>
       <c r="H15">
-        <v>0.550935507225664</v>
+        <v>116.052725</v>
       </c>
       <c r="I15">
-        <v>0.001656080348621943</v>
+        <v>0.1042827812651277</v>
       </c>
       <c r="J15">
-        <v>0.001656080348621943</v>
+        <v>0.1043524900644015</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>161.599786933506</v>
+        <v>162.9753976666667</v>
       </c>
       <c r="N15">
-        <v>161.599786933506</v>
+        <v>488.926193</v>
       </c>
       <c r="O15">
-        <v>0.4998380415855352</v>
+        <v>0.4955278697341596</v>
       </c>
       <c r="P15">
-        <v>0.4998380415855352</v>
+        <v>0.4962014278748991</v>
       </c>
       <c r="Q15">
-        <v>89.03106058177036</v>
+        <v>6304.579669058437</v>
       </c>
       <c r="R15">
-        <v>89.03106058177036</v>
+        <v>56741.21702152592</v>
       </c>
       <c r="S15">
-        <v>0.0008277719581634825</v>
+        <v>0.05167502445026206</v>
       </c>
       <c r="T15">
-        <v>0.0008277719581634825</v>
+        <v>0.05177985457225726</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>38.68424166666667</v>
+      </c>
+      <c r="H16">
+        <v>116.052725</v>
+      </c>
+      <c r="I16">
+        <v>0.1042827812651277</v>
+      </c>
+      <c r="J16">
+        <v>0.1043524900644015</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>1.3393445</v>
+      </c>
+      <c r="N16">
+        <v>2.678689</v>
+      </c>
+      <c r="O16">
+        <v>0.004072286593112612</v>
+      </c>
+      <c r="P16">
+        <v>0.002718547964217547</v>
+      </c>
+      <c r="Q16">
+        <v>51.81152631292083</v>
+      </c>
+      <c r="R16">
+        <v>310.869157877525</v>
+      </c>
+      <c r="S16">
+        <v>0.0004246693720384746</v>
+      </c>
+      <c r="T16">
+        <v>0.0002836872494256106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.550935507225664</v>
-      </c>
-      <c r="H16">
-        <v>0.550935507225664</v>
-      </c>
-      <c r="I16">
-        <v>0.001656080348621943</v>
-      </c>
-      <c r="J16">
-        <v>0.001656080348621943</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>161.323099630933</v>
-      </c>
-      <c r="N16">
-        <v>161.323099630933</v>
-      </c>
-      <c r="O16">
-        <v>0.4989822308071052</v>
-      </c>
-      <c r="P16">
-        <v>0.4989822308071052</v>
-      </c>
-      <c r="Q16">
-        <v>88.8786237223844</v>
-      </c>
-      <c r="R16">
-        <v>88.8786237223844</v>
-      </c>
-      <c r="S16">
-        <v>0.0008263546667511858</v>
-      </c>
-      <c r="T16">
-        <v>0.0008263546667511858</v>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>40.106198</v>
+      </c>
+      <c r="H17">
+        <v>120.318594</v>
+      </c>
+      <c r="I17">
+        <v>0.1081160103757125</v>
+      </c>
+      <c r="J17">
+        <v>0.1081882815327926</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.8795853333333333</v>
+      </c>
+      <c r="N17">
+        <v>2.638756</v>
+      </c>
+      <c r="O17">
+        <v>0.00267438553742657</v>
+      </c>
+      <c r="P17">
+        <v>0.002678020760105722</v>
+      </c>
+      <c r="Q17">
+        <v>35.27682353656267</v>
+      </c>
+      <c r="R17">
+        <v>317.491411829064</v>
+      </c>
+      <c r="S17">
+        <v>0.0002891438945130664</v>
+      </c>
+      <c r="T17">
+        <v>0.0002897304639449812</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>40.106198</v>
+      </c>
+      <c r="H18">
+        <v>120.318594</v>
+      </c>
+      <c r="I18">
+        <v>0.1081160103757125</v>
+      </c>
+      <c r="J18">
+        <v>0.1081882815327926</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.6985800000000001</v>
+      </c>
+      <c r="N18">
+        <v>2.09574</v>
+      </c>
+      <c r="O18">
+        <v>0.002124037518514922</v>
+      </c>
+      <c r="P18">
+        <v>0.002126924667450862</v>
+      </c>
+      <c r="Q18">
+        <v>28.01738779884</v>
+      </c>
+      <c r="R18">
+        <v>252.15649018956</v>
+      </c>
+      <c r="S18">
+        <v>0.0002296424623901619</v>
+      </c>
+      <c r="T18">
+        <v>0.0002301083247212152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>40.106198</v>
+      </c>
+      <c r="H19">
+        <v>120.318594</v>
+      </c>
+      <c r="I19">
+        <v>0.1081160103757125</v>
+      </c>
+      <c r="J19">
+        <v>0.1081882815327926</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>162.999588</v>
+      </c>
+      <c r="N19">
+        <v>488.998764</v>
+      </c>
+      <c r="O19">
+        <v>0.4956014206167863</v>
+      </c>
+      <c r="P19">
+        <v>0.4962750787333269</v>
+      </c>
+      <c r="Q19">
+        <v>6537.293750246424</v>
+      </c>
+      <c r="R19">
+        <v>58835.64375221781</v>
+      </c>
+      <c r="S19">
+        <v>0.05358244833362231</v>
+      </c>
+      <c r="T19">
+        <v>0.05369114793571</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>40.106198</v>
+      </c>
+      <c r="H20">
+        <v>120.318594</v>
+      </c>
+      <c r="I20">
+        <v>0.1081160103757125</v>
+      </c>
+      <c r="J20">
+        <v>0.1081882815327926</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>162.9753976666667</v>
+      </c>
+      <c r="N20">
+        <v>488.926193</v>
+      </c>
+      <c r="O20">
+        <v>0.4955278697341596</v>
+      </c>
+      <c r="P20">
+        <v>0.4962014278748991</v>
+      </c>
+      <c r="Q20">
+        <v>6536.323567948071</v>
+      </c>
+      <c r="R20">
+        <v>58826.91211153264</v>
+      </c>
+      <c r="S20">
+        <v>0.0535744963056331</v>
+      </c>
+      <c r="T20">
+        <v>0.05368317977590328</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>40.106198</v>
+      </c>
+      <c r="H21">
+        <v>120.318594</v>
+      </c>
+      <c r="I21">
+        <v>0.1081160103757125</v>
+      </c>
+      <c r="J21">
+        <v>0.1081882815327926</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>1.3393445</v>
+      </c>
+      <c r="N21">
+        <v>2.678689</v>
+      </c>
+      <c r="O21">
+        <v>0.004072286593112612</v>
+      </c>
+      <c r="P21">
+        <v>0.002718547964217547</v>
+      </c>
+      <c r="Q21">
+        <v>53.716015707211</v>
+      </c>
+      <c r="R21">
+        <v>322.2960942432659</v>
+      </c>
+      <c r="S21">
+        <v>0.0004402793795538379</v>
+      </c>
+      <c r="T21">
+        <v>0.0002941150325131682</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.7434085</v>
+      </c>
+      <c r="H22">
+        <v>1.486817</v>
+      </c>
+      <c r="I22">
+        <v>0.002004038405719556</v>
+      </c>
+      <c r="J22">
+        <v>0.001336918682608127</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.8795853333333333</v>
+      </c>
+      <c r="N22">
+        <v>2.638756</v>
+      </c>
+      <c r="O22">
+        <v>0.00267438553742657</v>
+      </c>
+      <c r="P22">
+        <v>0.002678020760105722</v>
+      </c>
+      <c r="Q22">
+        <v>0.6538912132753334</v>
+      </c>
+      <c r="R22">
+        <v>3.923347279652</v>
+      </c>
+      <c r="S22">
+        <v>5.359571328703782E-06</v>
+      </c>
+      <c r="T22">
+        <v>3.580295986597758E-06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.7434085</v>
+      </c>
+      <c r="H23">
+        <v>1.486817</v>
+      </c>
+      <c r="I23">
+        <v>0.002004038405719556</v>
+      </c>
+      <c r="J23">
+        <v>0.001336918682608127</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.6985800000000001</v>
+      </c>
+      <c r="N23">
+        <v>2.09574</v>
+      </c>
+      <c r="O23">
+        <v>0.002124037518514922</v>
+      </c>
+      <c r="P23">
+        <v>0.002126924667450862</v>
+      </c>
+      <c r="Q23">
+        <v>0.5193303099300001</v>
+      </c>
+      <c r="R23">
+        <v>3.11598185958</v>
+      </c>
+      <c r="S23">
+        <v>4.256652762293166E-06</v>
+      </c>
+      <c r="T23">
+        <v>2.843525324415136E-06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.7434085</v>
+      </c>
+      <c r="H24">
+        <v>1.486817</v>
+      </c>
+      <c r="I24">
+        <v>0.002004038405719556</v>
+      </c>
+      <c r="J24">
+        <v>0.001336918682608127</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>162.999588</v>
+      </c>
+      <c r="N24">
+        <v>488.998764</v>
+      </c>
+      <c r="O24">
+        <v>0.4956014206167863</v>
+      </c>
+      <c r="P24">
+        <v>0.4962750787333269</v>
+      </c>
+      <c r="Q24">
+        <v>121.175279215698</v>
+      </c>
+      <c r="R24">
+        <v>727.051675294188</v>
+      </c>
+      <c r="S24">
+        <v>0.0009932042808452116</v>
+      </c>
+      <c r="T24">
+        <v>0.0006634794244714041</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.7434085</v>
+      </c>
+      <c r="H25">
+        <v>1.486817</v>
+      </c>
+      <c r="I25">
+        <v>0.002004038405719556</v>
+      </c>
+      <c r="J25">
+        <v>0.001336918682608127</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>162.9753976666667</v>
+      </c>
+      <c r="N25">
+        <v>488.926193</v>
+      </c>
+      <c r="O25">
+        <v>0.4955278697341596</v>
+      </c>
+      <c r="P25">
+        <v>0.4962014278748991</v>
+      </c>
+      <c r="Q25">
+        <v>121.1572959162802</v>
+      </c>
+      <c r="R25">
+        <v>726.943775497681</v>
+      </c>
+      <c r="S25">
+        <v>0.0009930568820516533</v>
+      </c>
+      <c r="T25">
+        <v>0.0006633809592627818</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.7434085</v>
+      </c>
+      <c r="H26">
+        <v>1.486817</v>
+      </c>
+      <c r="I26">
+        <v>0.002004038405719556</v>
+      </c>
+      <c r="J26">
+        <v>0.001336918682608127</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>1.3393445</v>
+      </c>
+      <c r="N26">
+        <v>2.678689</v>
+      </c>
+      <c r="O26">
+        <v>0.004072286593112612</v>
+      </c>
+      <c r="P26">
+        <v>0.002718547964217547</v>
+      </c>
+      <c r="Q26">
+        <v>0.99568008572825</v>
+      </c>
+      <c r="R26">
+        <v>3.982720342913</v>
+      </c>
+      <c r="S26">
+        <v>8.16101873169452E-06</v>
+      </c>
+      <c r="T26">
+        <v>3.63447756292873E-06</v>
       </c>
     </row>
   </sheetData>
